--- a/social_data_2022_03_12.xlsx
+++ b/social_data_2022_03_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10d5f26f0755ba94/BBB-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_6A69D6BF87505D35C7BA361159EA68B269F9ED30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22194AE0-221C-4398-A315-B1BB7385F345}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_6A69D6BF87505D35C7BA361159EA68B269F9ED30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED643C6D-F9A0-4F89-AD01-DF4AE8EDDA9B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,11 +630,11 @@
         <v>64.205741626794264</v>
       </c>
       <c r="J2">
-        <v>0.48</v>
+        <v>0.12</v>
       </c>
       <c r="K2">
-        <f>(LN(C2)+((1.5*I2+G2)/E2))^J2</f>
-        <v>3.6954510733282357</v>
+        <f>((1.5*I2+G2)/E2)^J2</f>
+        <v>0.50282895174257969</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -675,11 +675,11 @@
         <v>104.989224137931</v>
       </c>
       <c r="J3">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K14" si="0">(LN(C3)+((1.5*I3+G3)/E3))^J3</f>
-        <v>7.8967479010350967</v>
+        <f t="shared" ref="K3:K14" si="0">((1.5*I3+G3)/E3)^J3</f>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -724,7 +724,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>4.9000564615698154</v>
+        <v>5.5645370824108732E-2</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>7.3305835084495126</v>
+        <v>1.3507870952459353E-2</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>2.310563773208091</v>
+        <v>0.21174754514132085</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.7433245565171227</v>
+        <v>1.8909539938066642</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>5.1061920164444281</v>
+        <v>2.8660510908790088E-2</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -948,8 +948,8 @@
         <v>-0.42</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.33482256073732147</v>
+        <f>((1.5*I9+G9)/E9)^J9</f>
+        <v>11.177364405524386</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -994,7 +994,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.22328285449718327</v>
+        <v>22.972245512698937</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>0.74113173928537712</v>
+        <v>2.1027129424285689</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1.3823019956186946</v>
+        <v>0.51179472618906996</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1.1409808468013423</v>
+        <v>0.79640286977488028</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.18172615677258275</v>
+        <v>246.68749074955517</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>

--- a/social_data_2022_03_12.xlsx
+++ b/social_data_2022_03_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10d5f26f0755ba94/BBB-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_6A69D6BF87505D35C7BA361159EA68B269F9ED30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED643C6D-F9A0-4F89-AD01-DF4AE8EDDA9B}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_6A69D6BF87505D35C7BA361159EA68B269F9ED30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B886ED8-B08A-4D41-92EC-0719B01A908E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,6 +251,932 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Pedro Scooby</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arthur Aguiar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paulo André</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Natalia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gustavo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Eslovênia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Vyni</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Douglas</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Lais</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Eliezer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0473488818564496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0643875108734882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91699775239807313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0098661608530688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88357955727216908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0848332891116812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0606821423428261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91155265606709945</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77271922434444007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80758607750878153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.054904052503667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97769540872741123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15126857367105034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E55C-4CBC-B842-FC50526789F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="770904128"/>
+        <c:axId val="770906208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="770904128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770906208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="770906208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770904128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DA85D4-4A07-4FBD-A7A0-1EB5D5436003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +1486,7 @@
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +1527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -633,8 +1559,8 @@
         <v>0.12</v>
       </c>
       <c r="K2">
-        <f>((1.5*I2+G2)/E2)^J2</f>
-        <v>0.50282895174257969</v>
+        <f>O2^J2</f>
+        <v>1.0473488818564496</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -645,8 +1571,12 @@
       <c r="N2">
         <v>0.63076336101898867</v>
       </c>
+      <c r="O2">
+        <f>1/(1.5*M2+N2)</f>
+        <v>1.4703750053942088</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -675,11 +1605,11 @@
         <v>104.989224137931</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K14" si="0">((1.5*I3+G3)/E3)^J3</f>
-        <v>1</v>
+        <f t="shared" ref="K3:K14" si="0">O3^J3</f>
+        <v>1.0643875108734882</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -690,8 +1620,12 @@
       <c r="N3">
         <v>0.37470325020549328</v>
       </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O14" si="1">1/(1.5*M3+N3)</f>
+        <v>2.4385944007267497</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -720,11 +1654,11 @@
         <v>149.2818532818533</v>
       </c>
       <c r="J4">
-        <v>0.57999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>5.5645370824108732E-2</v>
+        <v>0.91699775239807313</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -735,8 +1669,12 @@
       <c r="N4">
         <v>1.622803460765029</v>
       </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0.56120535703989782</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -765,11 +1703,11 @@
         <v>66.104234527687296</v>
       </c>
       <c r="J5">
-        <v>0.74</v>
+        <v>0.11</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.3507870952459353E-2</v>
+        <v>1.0098661608530688</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -780,8 +1718,12 @@
       <c r="N5">
         <v>0.86760514258465649</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1.0933570226989342</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -810,11 +1752,11 @@
         <v>39.22357723577236</v>
       </c>
       <c r="J6">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.21174754514132085</v>
+        <v>0.88357955727216908</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -825,8 +1767,12 @@
       <c r="N6">
         <v>1.7738319621042129</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.52129362958650027</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -855,11 +1801,11 @@
         <v>58.451428571428572</v>
       </c>
       <c r="J7">
-        <v>-0.11</v>
+        <v>0.13</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.8909539938066642</v>
+        <v>1.0848332891116812</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -870,8 +1816,12 @@
       <c r="N7">
         <v>0.48436851818582699</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1.8707816591351429</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -900,11 +1850,11 @@
         <v>26.760504201680671</v>
       </c>
       <c r="J8">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2.8660510908790088E-2</v>
+        <v>1.0606821423428261</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -915,8 +1865,12 @@
       <c r="N8">
         <v>0.71620616461965492</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1.2919337638138544</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -945,11 +1899,11 @@
         <v>18.414814814814811</v>
       </c>
       <c r="J9">
-        <v>-0.42</v>
+        <v>-0.11</v>
       </c>
       <c r="K9">
-        <f>((1.5*I9+G9)/E9)^J9</f>
-        <v>11.177364405524386</v>
+        <f t="shared" si="0"/>
+        <v>0.91155265606709945</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -960,8 +1914,12 @@
       <c r="N9">
         <v>0.40126634571079017</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2.3207072336581271</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -994,7 +1952,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>22.972245512698937</v>
+        <v>0.77271922434444007</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1005,8 +1963,12 @@
       <c r="N10">
         <v>0.56791581359923415</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1.5847516748795749</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1039,7 +2001,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2.1027129424285689</v>
+        <v>0.80758607750878153</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1050,8 +2012,12 @@
       <c r="N11">
         <v>0.13187843497677629</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>6.9781125578392356</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1084,7 +2050,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>0.51179472618906996</v>
+        <v>1.054904052503667</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1095,8 +2061,12 @@
       <c r="N12">
         <v>0.58459254779608838</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1.5611381586993698</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1129,7 +2099,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>0.79640286977488028</v>
+        <v>0.97769540872741123</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1140,8 +2110,12 @@
       <c r="N13">
         <v>1.3554668440895981</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.63690038985253417</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1174,7 +2148,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>246.68749074955517</v>
+        <v>0.15126857367105034</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1184,9 +2158,14 @@
       </c>
       <c r="N14">
         <v>5.1453605141594701E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>18.277847883446139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>